--- a/ProcurementProject/02. Test/data.xlsx
+++ b/ProcurementProject/02. Test/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xamp\htdocs\phuctruongexcel\ProcurementProject\02. Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135EB270-8D2A-4BE0-8216-2FDE69DE8D1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946E434A-E4A9-4FD2-8EE2-151970B727A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="5" xr2:uid="{2EFA123B-F13B-409B-8610-D0775AC1B912}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="3" xr2:uid="{2EFA123B-F13B-409B-8610-D0775AC1B912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="1895">
   <si>
     <t>nos</t>
   </si>
@@ -5873,6 +5873,33 @@
   </si>
   <si>
     <t>Description_VN</t>
+  </si>
+  <si>
+    <t>LOPK</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>HIHI2</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>DVN</t>
+  </si>
+  <si>
+    <t>NOTE1</t>
+  </si>
+  <si>
+    <t>hihi 3</t>
+  </si>
+  <si>
+    <t>FA12</t>
   </si>
 </sst>
 </file>
@@ -6073,7 +6100,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6155,10 +6182,7 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -6856,12 +6880,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AF7B9F-D3AE-407F-8A84-F90B91A43791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{06AF7B9F-D3AE-407F-8A84-F90B91A43791}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6872,7 +6896,7 @@
     <col min="5" max="5" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -6886,13 +6910,13 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>1892</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6910,7 +6934,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6928,25 +6952,35 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>VD</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Vegetables &amp; Herbs Dalat</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Rau tươi, gia vị Đà Lạt</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>hihi 3 345</t>
+        </is>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6964,7 +6998,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6982,7 +7016,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7000,7 +7034,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7018,7 +7052,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -7036,7 +7070,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -7054,7 +7088,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7072,7 +7106,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -7090,7 +7124,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="13">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -7108,7 +7142,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="14">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -7126,7 +7160,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -7144,105 +7178,51 @@
       <c r="G15" s="20"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="12"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E25" s="12"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E26" s="12"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E27" s="12"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+    <row spans="1:8" x14ac:dyDescent="0.2" outlineLevel="0" r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="37" t="inlineStr">
+        <is>
+          <t>HIHI2</t>
+        </is>
+      </c>
+      <c r="C17" s="37" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D17" s="37" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="E17" s="37" t="inlineStr">
+        <is>
+          <t>fa</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="18">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37" t="inlineStr"/>
+      <c r="C18" s="37" t="inlineStr"/>
+      <c r="D18" s="37" t="inlineStr"/>
+      <c r="E18" s="37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7598,7 +7578,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F607"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D537" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
